--- a/Code/Results/Cases/Case_7_45/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_45/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.002757941601291</v>
+        <v>0.9981412083094201</v>
       </c>
       <c r="D2">
-        <v>1.020610334145434</v>
+        <v>1.016931690533108</v>
       </c>
       <c r="E2">
-        <v>1.014617043926433</v>
+        <v>1.01105498175217</v>
       </c>
       <c r="F2">
-        <v>1.017242572314059</v>
+        <v>1.013349209758397</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046976375735229</v>
+        <v>1.045109080007268</v>
       </c>
       <c r="J2">
-        <v>1.0248564748603</v>
+        <v>1.020377658011919</v>
       </c>
       <c r="K2">
-        <v>1.031789811743586</v>
+        <v>1.028160073963808</v>
       </c>
       <c r="L2">
-        <v>1.02587642790015</v>
+        <v>1.022362421960804</v>
       </c>
       <c r="M2">
-        <v>1.028466805535654</v>
+        <v>1.024625649561911</v>
       </c>
       <c r="N2">
-        <v>1.02631188860729</v>
+        <v>1.021826711325248</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.010518125739859</v>
+        <v>1.00322141757572</v>
       </c>
       <c r="D3">
-        <v>1.026564708955809</v>
+        <v>1.020742352123751</v>
       </c>
       <c r="E3">
-        <v>1.021468789088593</v>
+        <v>1.015460460657286</v>
       </c>
       <c r="F3">
-        <v>1.024883212208976</v>
+        <v>1.018445282161127</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049505397906535</v>
+        <v>1.04654659290648</v>
       </c>
       <c r="J3">
-        <v>1.030726105795488</v>
+        <v>1.023624647079747</v>
       </c>
       <c r="K3">
-        <v>1.036868607940153</v>
+        <v>1.031116535231945</v>
       </c>
       <c r="L3">
-        <v>1.031834148726576</v>
+        <v>1.025899271111104</v>
       </c>
       <c r="M3">
-        <v>1.035207307461995</v>
+        <v>1.028847468985306</v>
       </c>
       <c r="N3">
-        <v>1.032189855091654</v>
+        <v>1.025078311489988</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.015382263082162</v>
+        <v>1.006432897491135</v>
       </c>
       <c r="D4">
-        <v>1.030297327940762</v>
+        <v>1.023150019280432</v>
       </c>
       <c r="E4">
-        <v>1.025769941162242</v>
+        <v>1.018251862180174</v>
       </c>
       <c r="F4">
-        <v>1.029681600505446</v>
+        <v>1.021675224869754</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051073678780212</v>
+        <v>1.047438890396675</v>
       </c>
       <c r="J4">
-        <v>1.034400508980897</v>
+        <v>1.025673468354215</v>
       </c>
       <c r="K4">
-        <v>1.040043341250222</v>
+        <v>1.032976847482572</v>
       </c>
       <c r="L4">
-        <v>1.035566984634748</v>
+        <v>1.028134883128212</v>
       </c>
       <c r="M4">
-        <v>1.039434521480829</v>
+        <v>1.031518902275966</v>
       </c>
       <c r="N4">
-        <v>1.035869476351047</v>
+        <v>1.02713004232567</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.017391698511009</v>
+        <v>1.007765581800192</v>
       </c>
       <c r="D5">
-        <v>1.031839283858133</v>
+        <v>1.024148764131331</v>
       </c>
       <c r="E5">
-        <v>1.027548258407843</v>
+        <v>1.019411729581871</v>
       </c>
       <c r="F5">
-        <v>1.031666013295086</v>
+        <v>1.023017567402908</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051717414948344</v>
+        <v>1.047805164183452</v>
       </c>
       <c r="J5">
-        <v>1.035917247439219</v>
+        <v>1.02652272880126</v>
       </c>
       <c r="K5">
-        <v>1.041352683646492</v>
+        <v>1.033746696576986</v>
       </c>
       <c r="L5">
-        <v>1.037108632569993</v>
+        <v>1.029062511987786</v>
       </c>
       <c r="M5">
-        <v>1.041181300604792</v>
+        <v>1.032628065615787</v>
       </c>
       <c r="N5">
-        <v>1.037388368751952</v>
+        <v>1.027980508819961</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.017727072995984</v>
+        <v>1.007988343730008</v>
       </c>
       <c r="D6">
-        <v>1.032096630518225</v>
+        <v>1.024315682851248</v>
       </c>
       <c r="E6">
-        <v>1.027845142715731</v>
+        <v>1.01960569194422</v>
       </c>
       <c r="F6">
-        <v>1.031997335566606</v>
+        <v>1.023242060366354</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051824608690837</v>
+        <v>1.047866150402544</v>
       </c>
       <c r="J6">
-        <v>1.036170318158417</v>
+        <v>1.026664628035024</v>
       </c>
       <c r="K6">
-        <v>1.041571081894942</v>
+        <v>1.033875251715162</v>
       </c>
       <c r="L6">
-        <v>1.037365905939104</v>
+        <v>1.029217561051995</v>
       </c>
       <c r="M6">
-        <v>1.041472863233876</v>
+        <v>1.032813498757809</v>
       </c>
       <c r="N6">
-        <v>1.037641798860599</v>
+        <v>1.028122609566913</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.015409249789576</v>
+        <v>1.006450772424951</v>
       </c>
       <c r="D7">
-        <v>1.030318036699848</v>
+        <v>1.023163416761772</v>
       </c>
       <c r="E7">
-        <v>1.025793818288169</v>
+        <v>1.018267413274373</v>
       </c>
       <c r="F7">
-        <v>1.02970824276999</v>
+        <v>1.02169322148937</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051082340646962</v>
+        <v>1.047443819052214</v>
       </c>
       <c r="J7">
-        <v>1.034420883623032</v>
+        <v>1.025684863062772</v>
       </c>
       <c r="K7">
-        <v>1.040060934460479</v>
+        <v>1.032987181778697</v>
       </c>
       <c r="L7">
-        <v>1.035587690763438</v>
+        <v>1.028147325588995</v>
       </c>
       <c r="M7">
-        <v>1.039457978962112</v>
+        <v>1.031533776917998</v>
       </c>
       <c r="N7">
-        <v>1.03588987992751</v>
+        <v>1.027141453216019</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.005414468536106</v>
+        <v>0.9998742177733069</v>
       </c>
       <c r="D8">
-        <v>1.022648522848744</v>
+        <v>1.018231838461491</v>
       </c>
       <c r="E8">
-        <v>1.016961173467861</v>
+        <v>1.012556436898671</v>
       </c>
       <c r="F8">
-        <v>1.019856194349661</v>
+        <v>1.015085841277665</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047845657737325</v>
+        <v>1.045602870803134</v>
       </c>
       <c r="J8">
-        <v>1.026866765989738</v>
+        <v>1.021486069334743</v>
       </c>
       <c r="K8">
-        <v>1.033530201781887</v>
+        <v>1.029170383722354</v>
       </c>
       <c r="L8">
-        <v>1.027916193506227</v>
+        <v>1.023568967620016</v>
       </c>
       <c r="M8">
-        <v>1.030773753845706</v>
+        <v>1.026065270272575</v>
       </c>
       <c r="N8">
-        <v>1.028325034580708</v>
+        <v>1.022936696719288</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9864882320520295</v>
+        <v>0.9876709412696568</v>
       </c>
       <c r="D9">
-        <v>1.008135020717032</v>
+        <v>1.009074460745756</v>
       </c>
       <c r="E9">
-        <v>1.000292503498325</v>
+        <v>1.00201317810682</v>
       </c>
       <c r="F9">
-        <v>1.001278536674888</v>
+        <v>1.002894287185443</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041582547573926</v>
+        <v>1.042058342930032</v>
       </c>
       <c r="J9">
-        <v>1.01252731704132</v>
+        <v>1.013666710581683</v>
       </c>
       <c r="K9">
-        <v>1.021097477441649</v>
+        <v>1.02202200703822</v>
       </c>
       <c r="L9">
-        <v>1.013380836819237</v>
+        <v>1.0150736771256</v>
       </c>
       <c r="M9">
-        <v>1.014350904516105</v>
+        <v>1.015940580486658</v>
       </c>
       <c r="N9">
-        <v>1.013965221970026</v>
+        <v>1.015106233579906</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9728118962888739</v>
+        <v>0.9790704001169507</v>
       </c>
       <c r="D10">
-        <v>0.9976642894980841</v>
+        <v>1.002621584313746</v>
       </c>
       <c r="E10">
-        <v>0.98829370297254</v>
+        <v>0.9946224944969094</v>
       </c>
       <c r="F10">
-        <v>0.9879132131759315</v>
+        <v>0.9943509831583149</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036971123522354</v>
+        <v>1.039477383698793</v>
       </c>
       <c r="J10">
-        <v>1.002147344448294</v>
+        <v>1.008139743806818</v>
       </c>
       <c r="K10">
-        <v>1.012075844368528</v>
+        <v>1.016943666023298</v>
       </c>
       <c r="L10">
-        <v>1.002877584616098</v>
+        <v>1.009089525031826</v>
       </c>
       <c r="M10">
-        <v>1.002504182214114</v>
+        <v>1.008822986951654</v>
       </c>
       <c r="N10">
-        <v>1.003570508625318</v>
+        <v>1.009571417878268</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9665919750586576</v>
+        <v>0.9752231736674285</v>
       </c>
       <c r="D11">
-        <v>0.9929089708358865</v>
+        <v>0.999736583470385</v>
       </c>
       <c r="E11">
-        <v>0.9828496207039009</v>
+        <v>0.9913267671946866</v>
       </c>
       <c r="F11">
-        <v>0.9818502908579517</v>
+        <v>0.9905415397001743</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03485503449504</v>
+        <v>1.038304187529817</v>
       </c>
       <c r="J11">
-        <v>0.9974237772098353</v>
+        <v>1.005664300459708</v>
       </c>
       <c r="K11">
-        <v>1.007965864110146</v>
+        <v>1.014663469151552</v>
       </c>
       <c r="L11">
-        <v>0.9981023813039179</v>
+        <v>1.006414122729115</v>
       </c>
       <c r="M11">
-        <v>0.9971227975171864</v>
+        <v>1.005644060610901</v>
       </c>
       <c r="N11">
-        <v>0.9988402333795798</v>
+        <v>1.007092459117668</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9642321599166137</v>
+        <v>0.9737744446936512</v>
       </c>
       <c r="D12">
-        <v>0.9911060910321138</v>
+        <v>0.998650540275442</v>
       </c>
       <c r="E12">
-        <v>0.9807862842645179</v>
+        <v>0.9900873369920444</v>
       </c>
       <c r="F12">
-        <v>0.9795525249273376</v>
+        <v>0.9891089202278796</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034049513262894</v>
+        <v>1.037859686735019</v>
       </c>
       <c r="J12">
-        <v>0.9956313963418535</v>
+        <v>1.004731735675568</v>
       </c>
       <c r="K12">
-        <v>1.006405691239393</v>
+        <v>1.013803639550497</v>
       </c>
       <c r="L12">
-        <v>0.9962910844868064</v>
+        <v>1.005406944379652</v>
       </c>
       <c r="M12">
-        <v>0.9950822384561431</v>
+        <v>1.004447793568974</v>
       </c>
       <c r="N12">
-        <v>0.9970453071251761</v>
+        <v>1.006158569984568</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9647406693417342</v>
+        <v>0.9740861136981948</v>
       </c>
       <c r="D13">
-        <v>0.9914945262807173</v>
+        <v>0.9988841661346813</v>
       </c>
       <c r="E13">
-        <v>0.9812308070774873</v>
+        <v>0.9903539043621816</v>
       </c>
       <c r="F13">
-        <v>0.980047548894911</v>
+        <v>0.9894170376791815</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034223211211593</v>
+        <v>1.037955434642553</v>
       </c>
       <c r="J13">
-        <v>0.9960176410288901</v>
+        <v>1.004932377885144</v>
       </c>
       <c r="K13">
-        <v>1.006741923763675</v>
+        <v>1.01398866914511</v>
       </c>
       <c r="L13">
-        <v>0.9966813747213943</v>
+        <v>1.005623607512973</v>
       </c>
       <c r="M13">
-        <v>0.9955218992627238</v>
+        <v>1.004705112415328</v>
       </c>
       <c r="N13">
-        <v>0.9974321003239712</v>
+        <v>1.006359497129095</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9663979505608813</v>
+        <v>0.975103830395883</v>
       </c>
       <c r="D14">
-        <v>0.9927607103167213</v>
+        <v>0.9996471097762132</v>
       </c>
       <c r="E14">
-        <v>0.9826799284512284</v>
+        <v>0.9912246320796965</v>
       </c>
       <c r="F14">
-        <v>0.9816613168036168</v>
+        <v>0.9904234849590586</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034788857874874</v>
+        <v>1.03826762514003</v>
       </c>
       <c r="J14">
-        <v>0.9972764119851857</v>
+        <v>1.005587485467569</v>
       </c>
       <c r="K14">
-        <v>1.007837602657967</v>
+        <v>1.014592661761929</v>
       </c>
       <c r="L14">
-        <v>0.997953447081091</v>
+        <v>1.006331147333694</v>
       </c>
       <c r="M14">
-        <v>0.9969549987227043</v>
+        <v>1.005545497931222</v>
       </c>
       <c r="N14">
-        <v>0.9986926588794081</v>
+        <v>1.007015535039429</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9674123502849117</v>
+        <v>0.9757282315394062</v>
       </c>
       <c r="D15">
-        <v>0.9935358998309731</v>
+        <v>1.000115248799028</v>
       </c>
       <c r="E15">
-        <v>0.9835672018210511</v>
+        <v>0.9917590671573855</v>
       </c>
       <c r="F15">
-        <v>0.9826494135728504</v>
+        <v>0.991041221501044</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035134734667142</v>
+        <v>1.038458808580027</v>
       </c>
       <c r="J15">
-        <v>0.9980468571645457</v>
+        <v>1.005989363748942</v>
       </c>
       <c r="K15">
-        <v>1.008508145941647</v>
+        <v>1.014963076503465</v>
       </c>
       <c r="L15">
-        <v>0.9987321227490835</v>
+        <v>1.006765284552384</v>
       </c>
       <c r="M15">
-        <v>0.9978323314666369</v>
+        <v>1.006061208627836</v>
       </c>
       <c r="N15">
-        <v>0.9994641981792939</v>
+        <v>1.007417984034058</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9732180287765214</v>
+        <v>0.9793230335636434</v>
       </c>
       <c r="D16">
-        <v>0.9979749499751833</v>
+        <v>1.002811073264574</v>
       </c>
       <c r="E16">
-        <v>0.988649458544546</v>
+        <v>0.99483913350424</v>
       </c>
       <c r="F16">
-        <v>0.9883094274732019</v>
+        <v>0.9946013930974947</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037108917266454</v>
+        <v>1.03955404232088</v>
       </c>
       <c r="J16">
-        <v>1.002455725550481</v>
+        <v>1.00830223815435</v>
       </c>
       <c r="K16">
-        <v>1.012344078266003</v>
+        <v>1.017093228621582</v>
       </c>
       <c r="L16">
-        <v>1.00318942952928</v>
+        <v>1.009265244605103</v>
       </c>
       <c r="M16">
-        <v>1.002855707272207</v>
+        <v>1.009031843397293</v>
       </c>
       <c r="N16">
-        <v>1.003879327664041</v>
+        <v>1.009734142986413</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9767768953070575</v>
+        <v>0.981544176408815</v>
       </c>
       <c r="D17">
-        <v>1.000697995674111</v>
+        <v>1.004477238849207</v>
       </c>
       <c r="E17">
-        <v>0.9917683535068761</v>
+        <v>0.996744993119431</v>
       </c>
       <c r="F17">
-        <v>0.9917831484216666</v>
+        <v>0.9968043758213442</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038314275100253</v>
+        <v>1.04022591191142</v>
       </c>
       <c r="J17">
-        <v>1.005157713087105</v>
+        <v>1.009730537293636</v>
       </c>
       <c r="K17">
-        <v>1.01469379755642</v>
+        <v>1.01840721863037</v>
       </c>
       <c r="L17">
-        <v>1.005922269306696</v>
+        <v>1.010810336119973</v>
       </c>
       <c r="M17">
-        <v>1.005936799194742</v>
+        <v>1.010868668870707</v>
       </c>
       <c r="N17">
-        <v>1.00658515233289</v>
+        <v>1.011164470474305</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9788243219677313</v>
+        <v>0.9828279367708825</v>
       </c>
       <c r="D18">
-        <v>1.002265182312327</v>
+        <v>1.005440373618712</v>
       </c>
       <c r="E18">
-        <v>0.9935638586318492</v>
+        <v>0.997847497806852</v>
       </c>
       <c r="F18">
-        <v>0.9937830368615522</v>
+        <v>0.998078788996518</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039005946318924</v>
+        <v>1.040612461507792</v>
       </c>
       <c r="J18">
-        <v>1.006711900855198</v>
+        <v>1.010555757717537</v>
       </c>
       <c r="K18">
-        <v>1.016044929977553</v>
+        <v>1.019165855288217</v>
       </c>
       <c r="L18">
-        <v>1.007494620835766</v>
+        <v>1.011703489970862</v>
       </c>
       <c r="M18">
-        <v>1.00770995307989</v>
+        <v>1.011930767654419</v>
       </c>
       <c r="N18">
-        <v>1.008141547225882</v>
+        <v>1.011990862805861</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9795177560726479</v>
+        <v>0.9832637000494036</v>
       </c>
       <c r="D19">
-        <v>1.002796062285374</v>
+        <v>1.005767322579637</v>
       </c>
       <c r="E19">
-        <v>0.9941721681048319</v>
+        <v>0.9982218974154193</v>
       </c>
       <c r="F19">
-        <v>0.994460611735837</v>
+        <v>0.998511572840399</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03923990037581</v>
+        <v>1.040743369724208</v>
       </c>
       <c r="J19">
-        <v>1.007238231551457</v>
+        <v>1.010835820509703</v>
       </c>
       <c r="K19">
-        <v>1.01650242063967</v>
+        <v>1.01942322830399</v>
       </c>
       <c r="L19">
-        <v>1.008027173390668</v>
+        <v>1.01200668532144</v>
       </c>
       <c r="M19">
-        <v>1.008310591269173</v>
+        <v>1.012291366353606</v>
       </c>
       <c r="N19">
-        <v>1.0086686253721</v>
+        <v>1.012271323319315</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9763980318985696</v>
+        <v>0.9813070971184548</v>
       </c>
       <c r="D20">
-        <v>1.000408045373774</v>
+        <v>1.004299381511361</v>
       </c>
       <c r="E20">
-        <v>0.9914362022357034</v>
+        <v>0.9965414652244156</v>
       </c>
       <c r="F20">
-        <v>0.991413197916851</v>
+        <v>0.9965691152888988</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038186140858825</v>
+        <v>1.040154381617041</v>
       </c>
       <c r="J20">
-        <v>1.004870097262782</v>
+        <v>1.009578114636412</v>
       </c>
       <c r="K20">
-        <v>1.014443723588391</v>
+        <v>1.018267050426928</v>
       </c>
       <c r="L20">
-        <v>1.005631325924234</v>
+        <v>1.010645402637445</v>
       </c>
       <c r="M20">
-        <v>1.005608735252675</v>
+        <v>1.010672562138108</v>
       </c>
       <c r="N20">
-        <v>1.006297128061107</v>
+        <v>1.011011831359423</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9659113290260323</v>
+        <v>0.9748046920829415</v>
       </c>
       <c r="D21">
-        <v>0.9923888881141514</v>
+        <v>0.9994228466376587</v>
       </c>
       <c r="E21">
-        <v>0.9822543680895485</v>
+        <v>0.9909686530581151</v>
       </c>
       <c r="F21">
-        <v>0.9811874024518594</v>
+        <v>0.9901276068768595</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034622841529894</v>
+        <v>1.038175936728411</v>
       </c>
       <c r="J21">
-        <v>0.9969068099324867</v>
+        <v>1.005394939633286</v>
       </c>
       <c r="K21">
-        <v>1.007515904423227</v>
+        <v>1.014415161622555</v>
       </c>
       <c r="L21">
-        <v>0.9975799207888846</v>
+        <v>1.006123171233431</v>
       </c>
       <c r="M21">
-        <v>0.9965341708670249</v>
+        <v>1.005298460096602</v>
       </c>
       <c r="N21">
-        <v>0.9983225319494001</v>
+        <v>1.006822715767976</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9590289068811544</v>
+        <v>0.970601736929201</v>
       </c>
       <c r="D22">
-        <v>0.9871335142103909</v>
+        <v>0.9962728838234118</v>
       </c>
       <c r="E22">
-        <v>0.9762409124991634</v>
+        <v>0.9873760696239584</v>
       </c>
       <c r="F22">
-        <v>0.9744908570711426</v>
+        <v>0.9859750165521128</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03226860431933</v>
+        <v>1.036881334080368</v>
       </c>
       <c r="J22">
-        <v>0.9916789696202939</v>
+        <v>1.002688762277847</v>
       </c>
       <c r="K22">
-        <v>1.002964241586527</v>
+        <v>1.011918538971207</v>
       </c>
       <c r="L22">
-        <v>0.9922982064508814</v>
+        <v>1.003201826876131</v>
       </c>
       <c r="M22">
-        <v>0.9905851776641851</v>
+        <v>1.001829526836969</v>
       </c>
       <c r="N22">
-        <v>0.9930872675043224</v>
+        <v>1.00411269533029</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9627065602092918</v>
+        <v>0.9728410963679511</v>
       </c>
       <c r="D23">
-        <v>0.9899409390024728</v>
+        <v>0.9979509660929483</v>
       </c>
       <c r="E23">
-        <v>0.9794529813698634</v>
+        <v>0.9892892976649122</v>
       </c>
       <c r="F23">
-        <v>0.9780677601978587</v>
+        <v>0.9881864876670522</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033528013572794</v>
+        <v>1.037572561471347</v>
       </c>
       <c r="J23">
-        <v>0.9944725797182504</v>
+        <v>1.004130823356735</v>
       </c>
       <c r="K23">
-        <v>1.005396835999344</v>
+        <v>1.013249368831859</v>
       </c>
       <c r="L23">
-        <v>0.9951202303220734</v>
+        <v>1.004758154809938</v>
       </c>
       <c r="M23">
-        <v>0.9937633710090565</v>
+        <v>1.003677329225764</v>
       </c>
       <c r="N23">
-        <v>0.9958848448490493</v>
+        <v>1.005556804301317</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9765693113824077</v>
+        <v>0.9814142594056878</v>
       </c>
       <c r="D24">
-        <v>1.000539126458168</v>
+        <v>1.004379774450723</v>
       </c>
       <c r="E24">
-        <v>0.9915863600353089</v>
+        <v>0.9966334589326689</v>
       </c>
       <c r="F24">
-        <v>0.9915804435020206</v>
+        <v>0.9966754519186265</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038244074299266</v>
+        <v>1.040186719554979</v>
       </c>
       <c r="J24">
-        <v>1.005000125698611</v>
+        <v>1.009647012179944</v>
       </c>
       <c r="K24">
-        <v>1.014556781041967</v>
+        <v>1.018330410434294</v>
       </c>
       <c r="L24">
-        <v>1.005762857420819</v>
+        <v>1.010719953867397</v>
       </c>
       <c r="M24">
-        <v>1.005757047092678</v>
+        <v>1.010761202973051</v>
       </c>
       <c r="N24">
-        <v>1.006427341152229</v>
+        <v>1.01108082674537</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9915535680957964</v>
+        <v>0.9909037004488084</v>
       </c>
       <c r="D25">
-        <v>1.012017276783697</v>
+        <v>1.011500563458297</v>
       </c>
       <c r="E25">
-        <v>1.004746367517789</v>
+        <v>1.004799584150085</v>
       </c>
       <c r="F25">
-        <v>1.006240995559501</v>
+        <v>1.006115702283842</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043273739893751</v>
+        <v>1.043011863349032</v>
       </c>
       <c r="J25">
-        <v>1.016368570682194</v>
+        <v>1.015741117668443</v>
       </c>
       <c r="K25">
-        <v>1.024431860946361</v>
+        <v>1.023922933246881</v>
       </c>
       <c r="L25">
-        <v>1.017271446377278</v>
+        <v>1.017323846874331</v>
       </c>
       <c r="M25">
-        <v>1.018743194538254</v>
+        <v>1.018619815932399</v>
       </c>
       <c r="N25">
-        <v>1.017811930631666</v>
+        <v>1.017183586562667</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_45/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_45/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9981412083094201</v>
+        <v>0.9976965103082271</v>
       </c>
       <c r="D2">
-        <v>1.016931690533108</v>
+        <v>1.015786051671164</v>
       </c>
       <c r="E2">
-        <v>1.01105498175217</v>
+        <v>1.013515739137121</v>
       </c>
       <c r="F2">
-        <v>1.013349209758397</v>
+        <v>1.022558729323862</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045109080007268</v>
+        <v>1.044527595107118</v>
       </c>
       <c r="J2">
-        <v>1.020377658011919</v>
+        <v>1.019946337321151</v>
       </c>
       <c r="K2">
-        <v>1.028160073963808</v>
+        <v>1.027029756697873</v>
       </c>
       <c r="L2">
-        <v>1.022362421960804</v>
+        <v>1.024789935606014</v>
       </c>
       <c r="M2">
-        <v>1.024625649561911</v>
+        <v>1.033712482671437</v>
       </c>
       <c r="N2">
-        <v>1.021826711325248</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.010641613672524</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.035253539784158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.00322141757572</v>
+        <v>1.00147771216855</v>
       </c>
       <c r="D3">
-        <v>1.020742352123751</v>
+        <v>1.018450369720381</v>
       </c>
       <c r="E3">
-        <v>1.015460460657286</v>
+        <v>1.016487057927966</v>
       </c>
       <c r="F3">
-        <v>1.018445282161127</v>
+        <v>1.025496680398363</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04654659290648</v>
+        <v>1.045381995555909</v>
       </c>
       <c r="J3">
-        <v>1.023624647079747</v>
+        <v>1.021928174161058</v>
       </c>
       <c r="K3">
-        <v>1.031116535231945</v>
+        <v>1.028852494348287</v>
       </c>
       <c r="L3">
-        <v>1.025899271111104</v>
+        <v>1.026913241891542</v>
       </c>
       <c r="M3">
-        <v>1.028847468985306</v>
+        <v>1.035813397831341</v>
       </c>
       <c r="N3">
-        <v>1.025078311489988</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.011303103228123</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.036916283539175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.006432897491135</v>
+        <v>1.003877737051312</v>
       </c>
       <c r="D4">
-        <v>1.023150019280432</v>
+        <v>1.02014010068268</v>
       </c>
       <c r="E4">
-        <v>1.018251862180174</v>
+        <v>1.018379377463852</v>
       </c>
       <c r="F4">
-        <v>1.021675224869754</v>
+        <v>1.027370435327403</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047438890396675</v>
+        <v>1.04590840490473</v>
       </c>
       <c r="J4">
-        <v>1.025673468354215</v>
+        <v>1.023182767379121</v>
       </c>
       <c r="K4">
-        <v>1.032976847482572</v>
+        <v>1.030001380431011</v>
       </c>
       <c r="L4">
-        <v>1.028134883128212</v>
+        <v>1.028260927064012</v>
       </c>
       <c r="M4">
-        <v>1.031518902275966</v>
+        <v>1.037149375601295</v>
       </c>
       <c r="N4">
-        <v>1.02713004232567</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.011721785725028</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.037973624876145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.007765581800192</v>
+        <v>1.004875856441576</v>
       </c>
       <c r="D5">
-        <v>1.024148764131331</v>
+        <v>1.020842437933084</v>
       </c>
       <c r="E5">
-        <v>1.019411729581871</v>
+        <v>1.019167841188564</v>
       </c>
       <c r="F5">
-        <v>1.023017567402908</v>
+        <v>1.02815180634773</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047805164183452</v>
+        <v>1.046123453314206</v>
       </c>
       <c r="J5">
-        <v>1.02652272880126</v>
+        <v>1.023703694309082</v>
       </c>
       <c r="K5">
-        <v>1.033746696576986</v>
+        <v>1.030477194635799</v>
       </c>
       <c r="L5">
-        <v>1.029062511987786</v>
+        <v>1.028821360973568</v>
       </c>
       <c r="M5">
-        <v>1.032628065615787</v>
+        <v>1.037705544288673</v>
       </c>
       <c r="N5">
-        <v>1.027980508819961</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.011895610895448</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.038413796516517</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.007988343730008</v>
+        <v>1.005042817837302</v>
       </c>
       <c r="D6">
-        <v>1.024315682851248</v>
+        <v>1.020959897812183</v>
       </c>
       <c r="E6">
-        <v>1.01960569194422</v>
+        <v>1.019299818717483</v>
       </c>
       <c r="F6">
-        <v>1.023242060366354</v>
+        <v>1.02828263436846</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047866150402544</v>
+        <v>1.046159196306642</v>
       </c>
       <c r="J6">
-        <v>1.026664628035024</v>
+        <v>1.023790783026665</v>
       </c>
       <c r="K6">
-        <v>1.033875251715162</v>
+        <v>1.030556668868556</v>
       </c>
       <c r="L6">
-        <v>1.029217561051995</v>
+        <v>1.028915104843819</v>
       </c>
       <c r="M6">
-        <v>1.032813498757809</v>
+        <v>1.037798610252759</v>
       </c>
       <c r="N6">
-        <v>1.028122609566913</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.011924669912696</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.038487452197401</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.006450772424951</v>
+        <v>1.003891116193078</v>
       </c>
       <c r="D7">
-        <v>1.023163416761772</v>
+        <v>1.020149516653277</v>
       </c>
       <c r="E7">
-        <v>1.018267413274373</v>
+        <v>1.018389940475359</v>
       </c>
       <c r="F7">
-        <v>1.02169322148937</v>
+        <v>1.027380900785067</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047443819052214</v>
+        <v>1.045911302866542</v>
       </c>
       <c r="J7">
-        <v>1.025684863062772</v>
+        <v>1.023189753394113</v>
       </c>
       <c r="K7">
-        <v>1.032987181778697</v>
+        <v>1.030007766310378</v>
       </c>
       <c r="L7">
-        <v>1.028147325588995</v>
+        <v>1.028268439515258</v>
       </c>
       <c r="M7">
-        <v>1.031533776917998</v>
+        <v>1.037156828492451</v>
       </c>
       <c r="N7">
-        <v>1.027141453216019</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.011724116923727</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.037979523360539</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9998742177733069</v>
+        <v>0.9989842451803577</v>
       </c>
       <c r="D8">
-        <v>1.018231838461491</v>
+        <v>1.016693673092579</v>
       </c>
       <c r="E8">
-        <v>1.012556436898671</v>
+        <v>1.014526306661431</v>
       </c>
       <c r="F8">
-        <v>1.015085841277665</v>
+        <v>1.023557385521071</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045602870803134</v>
+        <v>1.044821866902877</v>
       </c>
       <c r="J8">
-        <v>1.021486069334743</v>
+        <v>1.020621953410784</v>
       </c>
       <c r="K8">
-        <v>1.029170383722354</v>
+        <v>1.027652167969948</v>
       </c>
       <c r="L8">
-        <v>1.023568967620016</v>
+        <v>1.025513040344483</v>
       </c>
       <c r="M8">
-        <v>1.026065270272575</v>
+        <v>1.034427438619653</v>
       </c>
       <c r="N8">
-        <v>1.022936696719288</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.010867132014869</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.035819383412802</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9876709412696568</v>
+        <v>0.9899651842293477</v>
       </c>
       <c r="D9">
-        <v>1.009074460745756</v>
+        <v>1.010333320786579</v>
       </c>
       <c r="E9">
-        <v>1.00201317810682</v>
+        <v>1.00747684886055</v>
       </c>
       <c r="F9">
-        <v>1.002894287185443</v>
+        <v>1.016602411596901</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042058342930032</v>
+        <v>1.042695941559178</v>
       </c>
       <c r="J9">
-        <v>1.013666710581683</v>
+        <v>1.015877343018941</v>
       </c>
       <c r="K9">
-        <v>1.02202200703822</v>
+        <v>1.023260942595384</v>
       </c>
       <c r="L9">
-        <v>1.0150736771256</v>
+        <v>1.020449773062912</v>
       </c>
       <c r="M9">
-        <v>1.015940580486658</v>
+        <v>1.029431749058048</v>
       </c>
       <c r="N9">
-        <v>1.015106233579906</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.009283157780024</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.031865593096566</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9790704001169507</v>
+        <v>0.9837459492979387</v>
       </c>
       <c r="D10">
-        <v>1.002621584313746</v>
+        <v>1.00594907745294</v>
       </c>
       <c r="E10">
-        <v>0.9946224944969094</v>
+        <v>1.002694420528519</v>
       </c>
       <c r="F10">
-        <v>0.9943509831583149</v>
+        <v>1.011952067174397</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039477383698793</v>
+        <v>1.041159975311526</v>
       </c>
       <c r="J10">
-        <v>1.008139743806818</v>
+        <v>1.012619634083031</v>
       </c>
       <c r="K10">
-        <v>1.016943666023298</v>
+        <v>1.020211743850076</v>
       </c>
       <c r="L10">
-        <v>1.009089525031826</v>
+        <v>1.017015196199636</v>
       </c>
       <c r="M10">
-        <v>1.008822986951654</v>
+        <v>1.02610882526297</v>
       </c>
       <c r="N10">
-        <v>1.009571417878268</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.008199068776772</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.029287703231857</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9752231736674285</v>
+        <v>0.9815200544435977</v>
       </c>
       <c r="D11">
-        <v>0.999736583470385</v>
+        <v>1.004408839835123</v>
       </c>
       <c r="E11">
-        <v>0.9913267671946866</v>
+        <v>1.001323779863168</v>
       </c>
       <c r="F11">
-        <v>0.9905415397001743</v>
+        <v>1.011051973807944</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038304187529817</v>
+        <v>1.040665140328485</v>
       </c>
       <c r="J11">
-        <v>1.005664300459708</v>
+        <v>1.011682354275821</v>
       </c>
       <c r="K11">
-        <v>1.014663469151552</v>
+        <v>1.019248088107721</v>
       </c>
       <c r="L11">
-        <v>1.006414122729115</v>
+        <v>1.016220774739849</v>
       </c>
       <c r="M11">
-        <v>1.005644060610901</v>
+        <v>1.025768433011419</v>
       </c>
       <c r="N11">
-        <v>1.007092459117668</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.007919151703765</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.029459115661558</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9737744446936512</v>
+        <v>0.9808879876023773</v>
       </c>
       <c r="D12">
-        <v>0.998650540275442</v>
+        <v>1.003985018970019</v>
       </c>
       <c r="E12">
-        <v>0.9900873369920444</v>
+        <v>1.001086848578832</v>
       </c>
       <c r="F12">
-        <v>0.9891089202278796</v>
+        <v>1.011135882613894</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037859686735019</v>
+        <v>1.040554587091974</v>
       </c>
       <c r="J12">
-        <v>1.004731735675568</v>
+        <v>1.011523819982203</v>
       </c>
       <c r="K12">
-        <v>1.013803639550497</v>
+        <v>1.019036268479065</v>
       </c>
       <c r="L12">
-        <v>1.005406944379652</v>
+        <v>1.016193255865592</v>
       </c>
       <c r="M12">
-        <v>1.004447793568974</v>
+        <v>1.026052801869568</v>
       </c>
       <c r="N12">
-        <v>1.006158569984568</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.007892432322129</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.030013433089491</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9740861136981948</v>
+        <v>0.9814421860811656</v>
       </c>
       <c r="D13">
-        <v>0.9988841661346813</v>
+        <v>1.004393605930653</v>
       </c>
       <c r="E13">
-        <v>0.9903539043621816</v>
+        <v>1.001709062013547</v>
       </c>
       <c r="F13">
-        <v>0.9894170376791815</v>
+        <v>1.011996221603276</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037955434642553</v>
+        <v>1.040738894433459</v>
       </c>
       <c r="J13">
-        <v>1.004932377885144</v>
+        <v>1.011957674892878</v>
       </c>
       <c r="K13">
-        <v>1.01398866914511</v>
+        <v>1.019393359922668</v>
       </c>
       <c r="L13">
-        <v>1.005623607512973</v>
+        <v>1.016759668048026</v>
       </c>
       <c r="M13">
-        <v>1.004705112415328</v>
+        <v>1.026853871402519</v>
       </c>
       <c r="N13">
-        <v>1.006359497129095</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.00805993713144</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.030925640318804</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.975103830395883</v>
+        <v>0.9823643033178269</v>
       </c>
       <c r="D14">
-        <v>0.9996471097762132</v>
+        <v>1.0050543320292</v>
       </c>
       <c r="E14">
-        <v>0.9912246320796965</v>
+        <v>1.002529126687569</v>
       </c>
       <c r="F14">
-        <v>0.9904234849590586</v>
+        <v>1.012945337783469</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03826762514003</v>
+        <v>1.040999951633406</v>
       </c>
       <c r="J14">
-        <v>1.005587485467569</v>
+        <v>1.012526340130852</v>
       </c>
       <c r="K14">
-        <v>1.014592661761929</v>
+        <v>1.019898401034483</v>
       </c>
       <c r="L14">
-        <v>1.006331147333694</v>
+        <v>1.017420410951489</v>
       </c>
       <c r="M14">
-        <v>1.005545497931222</v>
+        <v>1.027643838954311</v>
       </c>
       <c r="N14">
-        <v>1.007015535039429</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.008263911481147</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.031724523814925</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9757282315394062</v>
+        <v>0.9828499674544848</v>
       </c>
       <c r="D15">
-        <v>1.000115248799028</v>
+        <v>1.005398894253222</v>
       </c>
       <c r="E15">
-        <v>0.9917590671573855</v>
+        <v>1.002923908779222</v>
       </c>
       <c r="F15">
-        <v>0.991041221501044</v>
+        <v>1.013362006250874</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038458808580027</v>
+        <v>1.041128992967924</v>
       </c>
       <c r="J15">
-        <v>1.005989363748942</v>
+        <v>1.012798505381032</v>
       </c>
       <c r="K15">
-        <v>1.014963076503465</v>
+        <v>1.020148342739392</v>
       </c>
       <c r="L15">
-        <v>1.006765284552384</v>
+        <v>1.0177192720714</v>
       </c>
       <c r="M15">
-        <v>1.006061208627836</v>
+        <v>1.027965705701712</v>
       </c>
       <c r="N15">
-        <v>1.007417984034058</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.008357576678783</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.032016673966849</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9793230335636434</v>
+        <v>0.9853734641936284</v>
       </c>
       <c r="D16">
-        <v>1.002811073264574</v>
+        <v>1.007175221892316</v>
       </c>
       <c r="E16">
-        <v>0.99483913350424</v>
+        <v>1.004830018888093</v>
       </c>
       <c r="F16">
-        <v>0.9946013930974947</v>
+        <v>1.015196738680629</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03955404232088</v>
+        <v>1.041760988864288</v>
       </c>
       <c r="J16">
-        <v>1.00830223815435</v>
+        <v>1.014100974455207</v>
       </c>
       <c r="K16">
-        <v>1.017093228621582</v>
+        <v>1.021379822093633</v>
       </c>
       <c r="L16">
-        <v>1.009265244605103</v>
+        <v>1.019076186949314</v>
       </c>
       <c r="M16">
-        <v>1.009031843397293</v>
+        <v>1.029261038914291</v>
       </c>
       <c r="N16">
-        <v>1.009734142986413</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.008786530329825</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.033001560966084</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.981544176408815</v>
+        <v>0.9868276222511864</v>
       </c>
       <c r="D17">
-        <v>1.004477238849207</v>
+        <v>1.008192631634953</v>
       </c>
       <c r="E17">
-        <v>0.996744993119431</v>
+        <v>1.005864001591931</v>
       </c>
       <c r="F17">
-        <v>0.9968043758213442</v>
+        <v>1.016102648542911</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04022591191142</v>
+        <v>1.042105554394152</v>
       </c>
       <c r="J17">
-        <v>1.009730537293636</v>
+        <v>1.014801579116952</v>
       </c>
       <c r="K17">
-        <v>1.01840721863037</v>
+        <v>1.022058523163795</v>
       </c>
       <c r="L17">
-        <v>1.010810336119973</v>
+        <v>1.019769988935218</v>
       </c>
       <c r="M17">
-        <v>1.010868668870707</v>
+        <v>1.029834110311003</v>
       </c>
       <c r="N17">
-        <v>1.011164470474305</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.009008410277201</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.03332472696394</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9828279367708825</v>
+        <v>0.9874902634511447</v>
       </c>
       <c r="D18">
-        <v>1.005440373618712</v>
+        <v>1.008645320943547</v>
       </c>
       <c r="E18">
-        <v>0.997847497806852</v>
+        <v>1.006216018724165</v>
       </c>
       <c r="F18">
-        <v>0.998078788996518</v>
+        <v>1.016238602338507</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040612461507792</v>
+        <v>1.042234250479749</v>
       </c>
       <c r="J18">
-        <v>1.010555757717537</v>
+        <v>1.015034348758245</v>
       </c>
       <c r="K18">
-        <v>1.019165855288217</v>
+        <v>1.022316475056447</v>
       </c>
       <c r="L18">
-        <v>1.011703489970862</v>
+        <v>1.01992831133312</v>
       </c>
       <c r="M18">
-        <v>1.011930767654419</v>
+        <v>1.029782802157407</v>
       </c>
       <c r="N18">
-        <v>1.011990862805861</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.009066879677802</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.033044857007684</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,81 +1232,93 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9832637000494036</v>
+        <v>0.9874302400785618</v>
       </c>
       <c r="D19">
-        <v>1.005767322579637</v>
+        <v>1.008582373948763</v>
       </c>
       <c r="E19">
-        <v>0.9982218974154193</v>
+        <v>1.005939216287623</v>
       </c>
       <c r="F19">
-        <v>0.998511572840399</v>
+        <v>1.015660920253859</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040743369724208</v>
+        <v>1.042167969772103</v>
       </c>
       <c r="J19">
-        <v>1.010835820509703</v>
+        <v>1.014839215779941</v>
       </c>
       <c r="K19">
-        <v>1.01942322830399</v>
+        <v>1.022190833081909</v>
       </c>
       <c r="L19">
-        <v>1.01200668532144</v>
+        <v>1.019592214988206</v>
       </c>
       <c r="M19">
-        <v>1.012291366353606</v>
+        <v>1.029151568616058</v>
       </c>
       <c r="N19">
-        <v>1.012271323319315</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.008977247737183</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.032217620760804</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C20">
-        <v>0.9813070971184548</v>
+        <v>0.9853603495808394</v>
       </c>
       <c r="D20">
-        <v>1.004299381511361</v>
+        <v>1.007087256970457</v>
       </c>
       <c r="E20">
-        <v>0.9965414652244156</v>
+        <v>1.003934889179264</v>
       </c>
       <c r="F20">
-        <v>0.9965691152888988</v>
+        <v>1.013160012287008</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040154381617041</v>
+        <v>1.041564694547627</v>
       </c>
       <c r="J20">
-        <v>1.009578114636412</v>
+        <v>1.013467507632224</v>
       </c>
       <c r="K20">
-        <v>1.018267050426928</v>
+        <v>1.021006619855818</v>
       </c>
       <c r="L20">
-        <v>1.010645402637445</v>
+        <v>1.017908899394152</v>
       </c>
       <c r="M20">
-        <v>1.010672562138108</v>
+        <v>1.026975339580891</v>
       </c>
       <c r="N20">
-        <v>1.011011831359423</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.008481391828472</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.02996279862484</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9748046920829415</v>
+        <v>0.9805851582287302</v>
       </c>
       <c r="D21">
-        <v>0.9994228466376587</v>
+        <v>1.003716055728698</v>
       </c>
       <c r="E21">
-        <v>0.9909686530581151</v>
+        <v>1.00021258448952</v>
       </c>
       <c r="F21">
-        <v>0.9901276068768595</v>
+        <v>1.009461210412569</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038175936728411</v>
+        <v>1.040345164103817</v>
       </c>
       <c r="J21">
-        <v>1.005394939633286</v>
+        <v>1.010917646463519</v>
       </c>
       <c r="K21">
-        <v>1.014415161622555</v>
+        <v>1.018627366647858</v>
       </c>
       <c r="L21">
-        <v>1.006123171233431</v>
+        <v>1.015189930511788</v>
       </c>
       <c r="M21">
-        <v>1.005298460096602</v>
+        <v>1.024265527186352</v>
       </c>
       <c r="N21">
-        <v>1.006822715767976</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.007626981554396</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.027776813079804</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.970601736929201</v>
+        <v>0.9775514749125684</v>
       </c>
       <c r="D22">
-        <v>0.9962728838234118</v>
+        <v>1.001576932008841</v>
       </c>
       <c r="E22">
-        <v>0.9873760696239584</v>
+        <v>0.9978772334764292</v>
       </c>
       <c r="F22">
-        <v>0.9859750165521128</v>
+        <v>1.007170471636607</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036881334080368</v>
+        <v>1.039559301418854</v>
       </c>
       <c r="J22">
-        <v>1.002688762277847</v>
+        <v>1.009309584165392</v>
       </c>
       <c r="K22">
-        <v>1.011918538971207</v>
+        <v>1.017117214162897</v>
       </c>
       <c r="L22">
-        <v>1.003201826876131</v>
+        <v>1.013490860405193</v>
       </c>
       <c r="M22">
-        <v>1.001829526836969</v>
+        <v>1.022601205958249</v>
       </c>
       <c r="N22">
-        <v>1.00411269533029</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.007089966154053</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.02645958935287</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9728410963679511</v>
+        <v>0.9791659166282853</v>
       </c>
       <c r="D23">
-        <v>0.9979509660929483</v>
+        <v>1.002715209408638</v>
       </c>
       <c r="E23">
-        <v>0.9892892976649122</v>
+        <v>0.999119202729935</v>
       </c>
       <c r="F23">
-        <v>0.9881864876670522</v>
+        <v>1.008388422495913</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037572561471347</v>
+        <v>1.039978940857903</v>
       </c>
       <c r="J23">
-        <v>1.004130823356735</v>
+        <v>1.010165553168245</v>
       </c>
       <c r="K23">
-        <v>1.013249368831859</v>
+        <v>1.017921499422186</v>
       </c>
       <c r="L23">
-        <v>1.004758154809938</v>
+        <v>1.014394912015058</v>
       </c>
       <c r="M23">
-        <v>1.003677329225764</v>
+        <v>1.02348650958276</v>
       </c>
       <c r="N23">
-        <v>1.005556804301317</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.007375819813997</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.027160261461062</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9814142594056878</v>
+        <v>0.9853866399556422</v>
       </c>
       <c r="D24">
-        <v>1.004379774450723</v>
+        <v>1.007103027532297</v>
       </c>
       <c r="E24">
-        <v>0.9966334589326689</v>
+        <v>1.003922722235787</v>
       </c>
       <c r="F24">
-        <v>0.9966754519186265</v>
+        <v>1.013105430947454</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040186719554979</v>
+        <v>1.041564368218728</v>
       </c>
       <c r="J24">
-        <v>1.009647012179944</v>
+        <v>1.013459060167239</v>
       </c>
       <c r="K24">
-        <v>1.018330410434294</v>
+        <v>1.021006543788485</v>
       </c>
       <c r="L24">
-        <v>1.010719953867397</v>
+        <v>1.017881298901423</v>
       </c>
       <c r="M24">
-        <v>1.010761202973051</v>
+        <v>1.026906243985979</v>
       </c>
       <c r="N24">
-        <v>1.01108082674537</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.008475660276729</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.029866797969421</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9909037004488084</v>
+        <v>0.9923431916094861</v>
       </c>
       <c r="D25">
-        <v>1.011500563458297</v>
+        <v>1.012010924309886</v>
       </c>
       <c r="E25">
-        <v>1.004799584150085</v>
+        <v>1.009329208901768</v>
       </c>
       <c r="F25">
-        <v>1.006115702283842</v>
+        <v>1.018427435742163</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043011863349032</v>
+        <v>1.043270520352695</v>
       </c>
       <c r="J25">
-        <v>1.015741117668443</v>
+        <v>1.017131014368123</v>
       </c>
       <c r="K25">
-        <v>1.023922933246881</v>
+        <v>1.024425604127644</v>
       </c>
       <c r="L25">
-        <v>1.017323846874331</v>
+        <v>1.021784406800589</v>
       </c>
       <c r="M25">
-        <v>1.018619815932399</v>
+        <v>1.030746269208021</v>
       </c>
       <c r="N25">
-        <v>1.017183586562667</v>
+        <v>1.009701740285132</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.032905959546585</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_45/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_45/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9976965103082271</v>
+        <v>0.9981702527284011</v>
       </c>
       <c r="D2">
-        <v>1.015786051671164</v>
+        <v>1.016091099142695</v>
       </c>
       <c r="E2">
-        <v>1.013515739137121</v>
+        <v>1.013896445128008</v>
       </c>
       <c r="F2">
-        <v>1.022558729323862</v>
+        <v>1.022865951835787</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.044527595107118</v>
+        <v>1.044682424017367</v>
       </c>
       <c r="J2">
-        <v>1.019946337321151</v>
+        <v>1.020405829294371</v>
       </c>
       <c r="K2">
-        <v>1.027029756697873</v>
+        <v>1.027330720272433</v>
       </c>
       <c r="L2">
-        <v>1.024789935606014</v>
+        <v>1.025165516545913</v>
       </c>
       <c r="M2">
-        <v>1.033712482671437</v>
+        <v>1.03401566020424</v>
       </c>
       <c r="N2">
-        <v>1.010641613672524</v>
+        <v>1.012666933972008</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.035253539784158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.035493486196534</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.019456029407209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.00147771216855</v>
+        <v>1.001791666475305</v>
       </c>
       <c r="D3">
-        <v>1.018450369720381</v>
+        <v>1.018531489796367</v>
       </c>
       <c r="E3">
-        <v>1.016487057927966</v>
+        <v>1.016739257275435</v>
       </c>
       <c r="F3">
-        <v>1.025496680398363</v>
+        <v>1.025700179661928</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.045381995555909</v>
+        <v>1.045423212736823</v>
       </c>
       <c r="J3">
-        <v>1.021928174161058</v>
+        <v>1.022233607735083</v>
       </c>
       <c r="K3">
-        <v>1.028852494348287</v>
+        <v>1.028932622821993</v>
       </c>
       <c r="L3">
-        <v>1.026913241891542</v>
+        <v>1.027162344201243</v>
       </c>
       <c r="M3">
-        <v>1.035813397831341</v>
+        <v>1.036014452148113</v>
       </c>
       <c r="N3">
-        <v>1.011303103228123</v>
+        <v>1.013152640101979</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.036916283539175</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.037075405329134</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.019777840432074</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.003877737051312</v>
+        <v>1.004091514815769</v>
       </c>
       <c r="D4">
-        <v>1.02014010068268</v>
+        <v>1.020080135203717</v>
       </c>
       <c r="E4">
-        <v>1.018379377463852</v>
+        <v>1.018550895025524</v>
       </c>
       <c r="F4">
-        <v>1.027370435327403</v>
+        <v>1.027508868219625</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.04590840490473</v>
+        <v>1.04587791495094</v>
       </c>
       <c r="J4">
-        <v>1.023182767379121</v>
+        <v>1.023391135150356</v>
       </c>
       <c r="K4">
-        <v>1.030001380431011</v>
+        <v>1.029942103867401</v>
       </c>
       <c r="L4">
-        <v>1.028260927064012</v>
+        <v>1.028430466270772</v>
       </c>
       <c r="M4">
-        <v>1.037149375601295</v>
+        <v>1.037286245943507</v>
       </c>
       <c r="N4">
-        <v>1.011721785725028</v>
+        <v>1.013460206504827</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.037973624876145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.038081948948328</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.01997780407815</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.004875856441576</v>
+        <v>1.005048254053112</v>
       </c>
       <c r="D5">
-        <v>1.020842437933084</v>
+        <v>1.020724038720946</v>
       </c>
       <c r="E5">
-        <v>1.019167841188564</v>
+        <v>1.019306006659212</v>
       </c>
       <c r="F5">
-        <v>1.02815180634773</v>
+        <v>1.028263354588253</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.046123453314206</v>
+        <v>1.046063234275368</v>
       </c>
       <c r="J5">
-        <v>1.023703694309082</v>
+        <v>1.02387185923763</v>
       </c>
       <c r="K5">
-        <v>1.030477194635799</v>
+        <v>1.030360119542443</v>
       </c>
       <c r="L5">
-        <v>1.028821360973568</v>
+        <v>1.028957975490641</v>
       </c>
       <c r="M5">
-        <v>1.037705544288673</v>
+        <v>1.037815867065004</v>
       </c>
       <c r="N5">
-        <v>1.011895610895448</v>
+        <v>1.013587931531242</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.038413796516517</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.038501109845401</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.020059916285692</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.005042817837302</v>
+        <v>1.005208309573586</v>
       </c>
       <c r="D6">
-        <v>1.020959897812183</v>
+        <v>1.020831737896511</v>
       </c>
       <c r="E6">
-        <v>1.019299818717483</v>
+        <v>1.019432416746215</v>
       </c>
       <c r="F6">
-        <v>1.02828263436846</v>
+        <v>1.02838969547334</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.046159196306642</v>
+        <v>1.046094009600389</v>
       </c>
       <c r="J6">
-        <v>1.023790783026665</v>
+        <v>1.023952232451682</v>
       </c>
       <c r="K6">
-        <v>1.030556668868556</v>
+        <v>1.030429935697417</v>
       </c>
       <c r="L6">
-        <v>1.028915104843819</v>
+        <v>1.029046221262952</v>
       </c>
       <c r="M6">
-        <v>1.037798610252759</v>
+        <v>1.037904500581964</v>
       </c>
       <c r="N6">
-        <v>1.011924669912696</v>
+        <v>1.013609285631048</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.038487452197401</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.038571257523172</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.020073589559686</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.003891116193078</v>
+        <v>1.004111757013892</v>
       </c>
       <c r="D7">
-        <v>1.020149516653277</v>
+        <v>1.020094162367012</v>
       </c>
       <c r="E7">
-        <v>1.018389940475359</v>
+        <v>1.018567167964863</v>
       </c>
       <c r="F7">
-        <v>1.027380900785067</v>
+        <v>1.027523885866982</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.045911302866542</v>
+        <v>1.045883157398521</v>
       </c>
       <c r="J7">
-        <v>1.023189753394113</v>
+        <v>1.023404812835522</v>
       </c>
       <c r="K7">
-        <v>1.030007766310378</v>
+        <v>1.029953047732982</v>
       </c>
       <c r="L7">
-        <v>1.028268439515258</v>
+        <v>1.028443623539408</v>
       </c>
       <c r="M7">
-        <v>1.037156828492451</v>
+        <v>1.037298200229699</v>
       </c>
       <c r="N7">
-        <v>1.011724116923727</v>
+        <v>1.013489729663154</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.037979523360539</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.038091409996154</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.019980383915541</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9989842451803577</v>
+        <v>0.9994261131599413</v>
       </c>
       <c r="D8">
-        <v>1.016693673092579</v>
+        <v>1.016938843686404</v>
       </c>
       <c r="E8">
-        <v>1.014526306661431</v>
+        <v>1.014882016717181</v>
       </c>
       <c r="F8">
-        <v>1.023557385521071</v>
+        <v>1.02384424151963</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.044821866902877</v>
+        <v>1.044946349741573</v>
       </c>
       <c r="J8">
-        <v>1.020621953410784</v>
+        <v>1.021050975761064</v>
       </c>
       <c r="K8">
-        <v>1.027652167969948</v>
+        <v>1.027894153701853</v>
       </c>
       <c r="L8">
-        <v>1.025513040344483</v>
+        <v>1.025864105460305</v>
       </c>
       <c r="M8">
-        <v>1.034427438619653</v>
+        <v>1.034710630616995</v>
       </c>
       <c r="N8">
-        <v>1.010867132014869</v>
+        <v>1.012917077220989</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.035819383412802</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.036043512323706</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.01957104378845</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9899651842293477</v>
+        <v>0.9907994744608571</v>
       </c>
       <c r="D9">
-        <v>1.010333320786579</v>
+        <v>1.011121533826955</v>
       </c>
       <c r="E9">
-        <v>1.00747684886055</v>
+        <v>1.008147434513753</v>
       </c>
       <c r="F9">
-        <v>1.016602411596901</v>
+        <v>1.017143753340692</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.042695941559178</v>
+        <v>1.043095178732538</v>
       </c>
       <c r="J9">
-        <v>1.015877343018941</v>
+        <v>1.016681363382655</v>
       </c>
       <c r="K9">
-        <v>1.023260942595384</v>
+        <v>1.024036712601467</v>
       </c>
       <c r="L9">
-        <v>1.020449773062912</v>
+        <v>1.021109693979236</v>
       </c>
       <c r="M9">
-        <v>1.029431749058048</v>
+        <v>1.029964676472394</v>
       </c>
       <c r="N9">
-        <v>1.009283157780024</v>
+        <v>1.011765310052381</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.031865593096566</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.032287374419056</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.018780373255114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9837459492979387</v>
+        <v>0.9848910438337428</v>
       </c>
       <c r="D10">
-        <v>1.00594907745294</v>
+        <v>1.007141014135468</v>
       </c>
       <c r="E10">
-        <v>1.002694420528519</v>
+        <v>1.00361417430475</v>
       </c>
       <c r="F10">
-        <v>1.011952067174397</v>
+        <v>1.012694837023945</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.041159975311526</v>
+        <v>1.041762754044474</v>
       </c>
       <c r="J10">
-        <v>1.012619634083031</v>
+        <v>1.013717212070208</v>
       </c>
       <c r="K10">
-        <v>1.020211743850076</v>
+        <v>1.021382521357506</v>
       </c>
       <c r="L10">
-        <v>1.017015196199636</v>
+        <v>1.017918478898836</v>
       </c>
       <c r="M10">
-        <v>1.02610882526297</v>
+        <v>1.026838603785539</v>
       </c>
       <c r="N10">
-        <v>1.008199068776772</v>
+        <v>1.011097430580308</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.029287703231857</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.029865246135916</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.018226277926972</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9815200544435977</v>
+        <v>0.9828216636776261</v>
       </c>
       <c r="D11">
-        <v>1.004408839835123</v>
+        <v>1.005774193863425</v>
       </c>
       <c r="E11">
-        <v>1.001323779863168</v>
+        <v>1.00236822498842</v>
       </c>
       <c r="F11">
-        <v>1.011051973807944</v>
+        <v>1.01189471334471</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.040665140328485</v>
+        <v>1.041355167731723</v>
       </c>
       <c r="J11">
-        <v>1.011682354275821</v>
+        <v>1.012926964518617</v>
       </c>
       <c r="K11">
-        <v>1.019248088107721</v>
+        <v>1.020588032738697</v>
       </c>
       <c r="L11">
-        <v>1.016220774739849</v>
+        <v>1.017245617823489</v>
       </c>
       <c r="M11">
-        <v>1.025768433011419</v>
+        <v>1.026595745714261</v>
       </c>
       <c r="N11">
-        <v>1.007919151703765</v>
+        <v>1.011140106307503</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.029459115661558</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.030113510523869</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.01808034487488</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9808879876023773</v>
+        <v>0.9822395613353199</v>
       </c>
       <c r="D12">
-        <v>1.003985018970019</v>
+        <v>1.005401780156711</v>
       </c>
       <c r="E12">
-        <v>1.001086848578832</v>
+        <v>1.00217006909789</v>
       </c>
       <c r="F12">
-        <v>1.011135882613894</v>
+        <v>1.012009521930215</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.040554587091974</v>
+        <v>1.041270427253865</v>
       </c>
       <c r="J12">
-        <v>1.011523819982203</v>
+        <v>1.012815069711423</v>
       </c>
       <c r="K12">
-        <v>1.019036268479065</v>
+        <v>1.020426217190596</v>
       </c>
       <c r="L12">
-        <v>1.016193255865592</v>
+        <v>1.017255811768703</v>
       </c>
       <c r="M12">
-        <v>1.026052801869568</v>
+        <v>1.026910199437904</v>
       </c>
       <c r="N12">
-        <v>1.007892432322129</v>
+        <v>1.011230919081048</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.030013433089491</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.030691391035751</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.018060766468916</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9814421860811656</v>
+        <v>0.9827545418223219</v>
       </c>
       <c r="D13">
-        <v>1.004393605930653</v>
+        <v>1.005763542961195</v>
       </c>
       <c r="E13">
-        <v>1.001709062013547</v>
+        <v>1.002759297043057</v>
       </c>
       <c r="F13">
-        <v>1.011996221603276</v>
+        <v>1.012843116612669</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.040738894433459</v>
+        <v>1.041431120266123</v>
       </c>
       <c r="J13">
-        <v>1.011957674892878</v>
+        <v>1.013211763259537</v>
       </c>
       <c r="K13">
-        <v>1.019393359922668</v>
+        <v>1.020737483525032</v>
       </c>
       <c r="L13">
-        <v>1.016759668048026</v>
+        <v>1.017789966584195</v>
       </c>
       <c r="M13">
-        <v>1.026853871402519</v>
+        <v>1.027685108811838</v>
       </c>
       <c r="N13">
-        <v>1.00805993713144</v>
+        <v>1.011329804120973</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.030925640318804</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.031582745458273</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.018137693322781</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9823643033178269</v>
+        <v>0.9836097423394204</v>
       </c>
       <c r="D14">
-        <v>1.0050543320292</v>
+        <v>1.006347848156085</v>
       </c>
       <c r="E14">
-        <v>1.002529126687569</v>
+        <v>1.003524734280982</v>
       </c>
       <c r="F14">
-        <v>1.012945337783469</v>
+        <v>1.013748173590189</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.040999951633406</v>
+        <v>1.04165367989046</v>
       </c>
       <c r="J14">
-        <v>1.012526340130852</v>
+        <v>1.013717291133202</v>
       </c>
       <c r="K14">
-        <v>1.019898401034483</v>
+        <v>1.021167851226715</v>
       </c>
       <c r="L14">
-        <v>1.017420410951489</v>
+        <v>1.018397366040981</v>
       </c>
       <c r="M14">
-        <v>1.027643838954311</v>
+        <v>1.028432029896159</v>
       </c>
       <c r="N14">
-        <v>1.008263911481147</v>
+        <v>1.01140306362374</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.031724523814925</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.032347515167188</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.018234814352033</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9828499674544848</v>
+        <v>0.9840603237101543</v>
       </c>
       <c r="D15">
-        <v>1.005398894253222</v>
+        <v>1.006652734983436</v>
       </c>
       <c r="E15">
-        <v>1.002923908779222</v>
+        <v>1.003891176767269</v>
       </c>
       <c r="F15">
-        <v>1.013362006250874</v>
+        <v>1.014142008041508</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.041128992967924</v>
+        <v>1.041762738439967</v>
       </c>
       <c r="J15">
-        <v>1.012798505381032</v>
+        <v>1.013956377399852</v>
       </c>
       <c r="K15">
-        <v>1.020148342739392</v>
+        <v>1.021379035067451</v>
       </c>
       <c r="L15">
-        <v>1.0177192720714</v>
+        <v>1.018668560594146</v>
       </c>
       <c r="M15">
-        <v>1.027965705701712</v>
+        <v>1.028731591136467</v>
       </c>
       <c r="N15">
-        <v>1.008357576678783</v>
+        <v>1.011426909089786</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.032016673966849</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.032622018870587</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.01828059045122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9853734641936284</v>
+        <v>0.9864102032316959</v>
       </c>
       <c r="D16">
-        <v>1.007175221892316</v>
+        <v>1.008230922947174</v>
       </c>
       <c r="E16">
-        <v>1.004830018888093</v>
+        <v>1.005658121024904</v>
       </c>
       <c r="F16">
-        <v>1.015196738680629</v>
+        <v>1.015864650998789</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.041760988864288</v>
+        <v>1.042294919354237</v>
       </c>
       <c r="J16">
-        <v>1.014100974455207</v>
+        <v>1.015095025833874</v>
       </c>
       <c r="K16">
-        <v>1.021379822093633</v>
+        <v>1.022416893066306</v>
       </c>
       <c r="L16">
-        <v>1.019076186949314</v>
+        <v>1.019889582551838</v>
       </c>
       <c r="M16">
-        <v>1.029261038914291</v>
+        <v>1.029917398403873</v>
       </c>
       <c r="N16">
-        <v>1.008786530329825</v>
+        <v>1.011518631233387</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.033001560966084</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>1.033520353139582</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.018497165228461</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9868276222511864</v>
+        <v>0.9877744467300312</v>
       </c>
       <c r="D17">
-        <v>1.008192631634953</v>
+        <v>1.009142269839341</v>
       </c>
       <c r="E17">
-        <v>1.005864001591931</v>
+        <v>1.00662041263457</v>
       </c>
       <c r="F17">
-        <v>1.016102648542911</v>
+        <v>1.01671284078623</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.042105554394152</v>
+        <v>1.042586030481416</v>
       </c>
       <c r="J17">
-        <v>1.014801579116952</v>
+        <v>1.015710679457783</v>
       </c>
       <c r="K17">
-        <v>1.022058523163795</v>
+        <v>1.02299187854234</v>
       </c>
       <c r="L17">
-        <v>1.019769988935218</v>
+        <v>1.020513349311259</v>
       </c>
       <c r="M17">
-        <v>1.029834110311003</v>
+        <v>1.03043404446332</v>
       </c>
       <c r="N17">
-        <v>1.009008410277201</v>
+        <v>1.011579293555427</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.03332472696394</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>1.033798967793596</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.018612684173701</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9874902634511447</v>
+        <v>0.9884007791700539</v>
       </c>
       <c r="D18">
-        <v>1.008645320943547</v>
+        <v>1.009551448433178</v>
       </c>
       <c r="E18">
-        <v>1.006216018724165</v>
+        <v>1.006944013281828</v>
       </c>
       <c r="F18">
-        <v>1.016238602338507</v>
+        <v>1.016826011062526</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.042234250479749</v>
+        <v>1.042692814631768</v>
       </c>
       <c r="J18">
-        <v>1.015034348758245</v>
+        <v>1.015909268264109</v>
       </c>
       <c r="K18">
-        <v>1.022316475056447</v>
+        <v>1.023207323311024</v>
       </c>
       <c r="L18">
-        <v>1.01992831133312</v>
+        <v>1.020643950938706</v>
       </c>
       <c r="M18">
-        <v>1.029782802157407</v>
+        <v>1.030360491515897</v>
       </c>
       <c r="N18">
-        <v>1.009066879677802</v>
+        <v>1.011576906737609</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.033044857007684</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>1.03350160998558</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.018648088080315</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,93 +1391,111 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9874302400785618</v>
+        <v>0.9883479673727705</v>
       </c>
       <c r="D19">
-        <v>1.008582373948763</v>
+        <v>1.009498297758815</v>
       </c>
       <c r="E19">
-        <v>1.005939216287623</v>
+        <v>1.006673983245708</v>
       </c>
       <c r="F19">
-        <v>1.015660920253859</v>
+        <v>1.016254001765658</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.042167969772103</v>
+        <v>1.042631523097985</v>
       </c>
       <c r="J19">
-        <v>1.014839215779941</v>
+        <v>1.015721269705465</v>
       </c>
       <c r="K19">
-        <v>1.022190833081909</v>
+        <v>1.023091392896704</v>
       </c>
       <c r="L19">
-        <v>1.019592214988206</v>
+        <v>1.020314570187087</v>
       </c>
       <c r="M19">
-        <v>1.029151568616058</v>
+        <v>1.029734875120011</v>
       </c>
       <c r="N19">
-        <v>1.008977247737183</v>
+        <v>1.011497353299669</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.032217620760804</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>1.032678968040053</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.018609439790726</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9853603495808394</v>
+        <v>0.986403549225456</v>
       </c>
       <c r="D20">
-        <v>1.007087256970457</v>
+        <v>1.00815886608428</v>
       </c>
       <c r="E20">
-        <v>1.003934889179264</v>
+        <v>1.004772400811911</v>
       </c>
       <c r="F20">
-        <v>1.013160012287008</v>
+        <v>1.013836454545576</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.041564694547627</v>
+        <v>1.042106838172735</v>
       </c>
       <c r="J20">
-        <v>1.013467507632224</v>
+        <v>1.014468842917811</v>
       </c>
       <c r="K20">
-        <v>1.021006619855818</v>
+        <v>1.022059752912814</v>
       </c>
       <c r="L20">
-        <v>1.017908899394152</v>
+        <v>1.018731849195382</v>
       </c>
       <c r="M20">
-        <v>1.026975339580891</v>
+        <v>1.027640292933365</v>
       </c>
       <c r="N20">
-        <v>1.008481391828472</v>
+        <v>1.011198130809323</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.02996279862484</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>1.030489045629013</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.018367851876486</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9805851582287302</v>
+        <v>0.9819720069721093</v>
       </c>
       <c r="D21">
-        <v>1.003716055728698</v>
+        <v>1.005175305783274</v>
       </c>
       <c r="E21">
-        <v>1.00021258448952</v>
+        <v>1.001328818989655</v>
       </c>
       <c r="F21">
-        <v>1.009461210412569</v>
+        <v>1.010362245311495</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.040345164103817</v>
+        <v>1.041082576916096</v>
       </c>
       <c r="J21">
-        <v>1.010917646463519</v>
+        <v>1.012243298828455</v>
       </c>
       <c r="K21">
-        <v>1.018627366647858</v>
+        <v>1.020059289302051</v>
       </c>
       <c r="L21">
-        <v>1.015189930511788</v>
+        <v>1.016285060144403</v>
       </c>
       <c r="M21">
-        <v>1.024265527186352</v>
+        <v>1.025149925629711</v>
       </c>
       <c r="N21">
-        <v>1.007626981554396</v>
+        <v>1.011022547055765</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.027776813079804</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>1.028476767442349</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.017945965282087</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9775514749125684</v>
+        <v>0.9791566842203472</v>
       </c>
       <c r="D22">
-        <v>1.001576932008841</v>
+        <v>1.003282431000711</v>
       </c>
       <c r="E22">
-        <v>0.9978772334764292</v>
+        <v>0.9991703695995157</v>
       </c>
       <c r="F22">
-        <v>1.007170471636607</v>
+        <v>1.008214078565887</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.039559301418854</v>
+        <v>1.040420539847604</v>
       </c>
       <c r="J22">
-        <v>1.009309584165392</v>
+        <v>1.01083977607813</v>
       </c>
       <c r="K22">
-        <v>1.017117214162897</v>
+        <v>1.018789141542996</v>
       </c>
       <c r="L22">
-        <v>1.013490860405193</v>
+        <v>1.014758279565274</v>
       </c>
       <c r="M22">
-        <v>1.022601205958249</v>
+        <v>1.023624550504624</v>
       </c>
       <c r="N22">
-        <v>1.007089966154053</v>
+        <v>1.010907754757163</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.02645958935287</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>1.02726951365878</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.017676390157621</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9791659166282853</v>
+        <v>0.9806429205956761</v>
       </c>
       <c r="D23">
-        <v>1.002715209408638</v>
+        <v>1.004280846171574</v>
       </c>
       <c r="E23">
-        <v>0.999119202729935</v>
+        <v>1.000308155107426</v>
       </c>
       <c r="F23">
-        <v>1.008388422495913</v>
+        <v>1.009348160371532</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.039978940857903</v>
+        <v>1.040769849658087</v>
       </c>
       <c r="J23">
-        <v>1.010165553168245</v>
+        <v>1.011575586040928</v>
       </c>
       <c r="K23">
-        <v>1.017921499422186</v>
+        <v>1.019457115577821</v>
       </c>
       <c r="L23">
-        <v>1.014394912015058</v>
+        <v>1.015560839839422</v>
       </c>
       <c r="M23">
-        <v>1.02348650958276</v>
+        <v>1.024428099950897</v>
       </c>
       <c r="N23">
-        <v>1.007375819813997</v>
+        <v>1.010926817843786</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.027160261461062</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>1.027905480835647</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.017817901947455</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9853866399556422</v>
+        <v>0.9864287092941995</v>
       </c>
       <c r="D24">
-        <v>1.007103027532297</v>
+        <v>1.008173476521533</v>
       </c>
       <c r="E24">
-        <v>1.003922722235787</v>
+        <v>1.004759468636425</v>
       </c>
       <c r="F24">
-        <v>1.013105430947454</v>
+        <v>1.013781297685087</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.041564368218728</v>
+        <v>1.042105934515816</v>
       </c>
       <c r="J24">
-        <v>1.013459060167239</v>
+        <v>1.014459372563666</v>
       </c>
       <c r="K24">
-        <v>1.021006543788485</v>
+        <v>1.022058561186576</v>
       </c>
       <c r="L24">
-        <v>1.017881298901423</v>
+        <v>1.018703515041471</v>
       </c>
       <c r="M24">
-        <v>1.026906243985979</v>
+        <v>1.027570644733074</v>
       </c>
       <c r="N24">
-        <v>1.008475660276729</v>
+        <v>1.011189508276547</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.029866797969421</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>1.030392634324671</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.018365524445342</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9923431916094861</v>
+        <v>0.9930636487577864</v>
       </c>
       <c r="D25">
-        <v>1.012010924309886</v>
+        <v>1.012648306150385</v>
       </c>
       <c r="E25">
-        <v>1.009329208901768</v>
+        <v>1.009908343747555</v>
       </c>
       <c r="F25">
-        <v>1.018427435742163</v>
+        <v>1.018894881791957</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.043270520352695</v>
+        <v>1.043593560049996</v>
       </c>
       <c r="J25">
-        <v>1.017131014368123</v>
+        <v>1.017826725096615</v>
       </c>
       <c r="K25">
-        <v>1.024425604127644</v>
+        <v>1.025053395938555</v>
       </c>
       <c r="L25">
-        <v>1.021784406800589</v>
+        <v>1.022354768279558</v>
       </c>
       <c r="M25">
-        <v>1.030746269208021</v>
+        <v>1.031206792753689</v>
       </c>
       <c r="N25">
-        <v>1.009701740285132</v>
+        <v>1.012036766367308</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.032905959546585</v>
+        <v>1.03327043685483</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.018990848131946</v>
       </c>
     </row>
   </sheetData>
